--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,61 +1022,67 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1048,17 +1093,23 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1123,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1096,14 +1149,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1140,14 +1199,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-35200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,16 +1389,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1334,14 +1419,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-35200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,16 +1539,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1466,14 +1569,14 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-35200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1486,16 +1589,22 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1510,14 +1619,14 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-35200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1689,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,16 +1889,22 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1774,14 +1919,14 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-35200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,16 +1989,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1862,14 +2019,14 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-35200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1993,26 +2166,32 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,13 +2279,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2226,13 +2429,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2345,26 +2566,32 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2575,16 +2826,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2643,19 +2904,19 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,28 +2942,28 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,10 +2995,10 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2743,27 +3016,33 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2772,31 +3051,37 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,40 +3092,46 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3033,10 +3348,10 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3045,22 +3360,28 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,25 +3594,31 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35700</v>
+        <v>-93900</v>
       </c>
       <c r="E72" s="3">
-        <v>-35700</v>
+        <v>-82200</v>
       </c>
       <c r="F72" s="3">
         <v>-35700</v>
       </c>
       <c r="G72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="H72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="I72" s="3">
         <v>-35600</v>
@@ -3280,10 +3627,10 @@
         <v>-35600</v>
       </c>
       <c r="K72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="L72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
@@ -3292,13 +3639,19 @@
         <v>-300</v>
       </c>
       <c r="O72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3447,10 +3818,10 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3459,22 +3830,28 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
       </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,65 +3894,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-46500</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3590,14 +3979,14 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-35200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,26 +4051,32 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,26 +4891,32 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,38 +1048,41 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1099,8 +1122,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1161,11 @@
         <v>11600</v>
       </c>
       <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>46500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1155,11 +1182,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,11 +1214,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-46500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1205,11 +1235,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-35200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,11 +1447,11 @@
         <v>-11700</v>
       </c>
       <c r="E23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-46500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1425,11 +1468,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-35200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,11 +1606,11 @@
         <v>-11700</v>
       </c>
       <c r="E26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-46500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1575,11 +1627,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-35200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,11 +1659,11 @@
         <v>-11700</v>
       </c>
       <c r="E27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-46500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1625,11 +1680,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-35200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1767,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,11 +1977,11 @@
         <v>-11700</v>
       </c>
       <c r="E33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-46500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1925,11 +1998,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-35200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,11 +2083,11 @@
         <v>-11700</v>
       </c>
       <c r="E35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-46500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2025,11 +2104,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-35200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2172,8 +2259,8 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2181,8 +2268,8 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2285,13 +2378,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2435,13 +2537,16 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,8 +2683,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>100</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2832,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2910,16 +3041,16 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,25 +3082,25 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,7 +3138,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3022,16 +3159,19 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,25 +3182,25 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3069,19 +3209,22 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3098,19 +3241,19 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3119,19 +3262,22 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,13 +3485,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -3354,7 +3512,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3366,22 +3524,25 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-93900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-35700</v>
       </c>
       <c r="G72" s="3">
         <v>-35700</v>
@@ -3621,7 +3795,7 @@
         <v>-35700</v>
       </c>
       <c r="I72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="J72" s="3">
         <v>-35600</v>
@@ -3633,7 +3807,7 @@
         <v>-35600</v>
       </c>
       <c r="M72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="N72" s="3">
         <v>-300</v>
@@ -3645,13 +3819,16 @@
         <v>-300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
@@ -3824,7 +4010,7 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -3836,22 +4022,25 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,11 +4159,11 @@
         <v>-11700</v>
       </c>
       <c r="E81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-46500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3985,11 +4180,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-35200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4057,8 +4256,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4897,8 +5146,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4906,8 +5155,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,13 +935,14 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,38 +1071,41 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1125,8 +1148,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,11 +1191,11 @@
         <v>11600</v>
       </c>
       <c r="F17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G17" s="3">
         <v>46500</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1185,11 +1212,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>35200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1247,11 @@
         <v>-11600</v>
       </c>
       <c r="F18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-46500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1238,11 +1268,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-35200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,11 +1493,11 @@
         <v>-11700</v>
       </c>
       <c r="F23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-46500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1471,11 +1514,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-35200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,11 +1661,11 @@
         <v>-11700</v>
       </c>
       <c r="F26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-46500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1630,11 +1682,11 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-35200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,11 +1717,11 @@
         <v>-11700</v>
       </c>
       <c r="F27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-46500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1683,11 +1738,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-35200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,19 +1814,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,11 +2053,11 @@
         <v>-11700</v>
       </c>
       <c r="F33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-46500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2001,11 +2074,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-35200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,11 +2165,11 @@
         <v>-11700</v>
       </c>
       <c r="F35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-46500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2107,11 +2186,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-35200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2262,8 +2349,8 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2271,8 +2358,8 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2381,13 +2474,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2540,13 +2642,16 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>100</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2961,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3044,16 +3175,16 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3085,25 +3219,25 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3141,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3162,16 +3299,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3185,25 +3325,25 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3212,19 +3352,22 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3244,19 +3387,19 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3265,19 +3408,22 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,7 +3655,7 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -3515,7 +3673,7 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3527,22 +3685,25 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,22 +3945,25 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-93900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-35700</v>
       </c>
       <c r="H72" s="3">
         <v>-35700</v>
@@ -3798,7 +3972,7 @@
         <v>-35700</v>
       </c>
       <c r="J72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="K72" s="3">
         <v>-35600</v>
@@ -3810,7 +3984,7 @@
         <v>-35600</v>
       </c>
       <c r="N72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="O72" s="3">
         <v>-300</v>
@@ -3822,13 +3996,16 @@
         <v>-300</v>
       </c>
       <c r="R72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,7 +4181,7 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -4013,7 +4199,7 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -4025,22 +4211,25 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,11 +4357,11 @@
         <v>-11700</v>
       </c>
       <c r="F81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-46500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -4183,11 +4378,11 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-35200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5149,8 +5398,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,16 +948,17 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1158,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1151,8 +1173,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,11 +1220,11 @@
         <v>11600</v>
       </c>
       <c r="G17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H17" s="3">
         <v>46500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1215,11 +1241,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>35200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,11 +1279,11 @@
         <v>-11600</v>
       </c>
       <c r="G18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-46500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1271,11 +1300,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-35200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1520,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E23" s="3">
         <v>-11700</v>
@@ -1496,11 +1538,11 @@
         <v>-11700</v>
       </c>
       <c r="G23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-46500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1517,11 +1559,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-35200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1697,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E26" s="3">
         <v>-11700</v>
@@ -1664,11 +1715,11 @@
         <v>-11700</v>
       </c>
       <c r="G26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-46500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1685,11 +1736,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-35200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1705,13 +1756,16 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E27" s="3">
         <v>-11700</v>
@@ -1720,11 +1774,11 @@
         <v>-11700</v>
       </c>
       <c r="G27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-46500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1741,11 +1795,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-35200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2110,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E33" s="3">
         <v>-11700</v>
@@ -2056,11 +2128,11 @@
         <v>-11700</v>
       </c>
       <c r="G33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-46500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2077,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-35200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2228,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E35" s="3">
         <v>-11700</v>
@@ -2168,11 +2246,11 @@
         <v>-11700</v>
       </c>
       <c r="G35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-46500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2189,11 +2267,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-35200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2352,8 +2438,8 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2361,8 +2447,8 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2477,13 +2569,16 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2645,13 +2746,16 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2800,8 +2910,8 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -2809,8 +2919,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>100</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3090,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3178,16 +3308,16 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3222,25 +3355,25 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3281,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3302,16 +3438,19 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,25 +3467,25 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3355,19 +3494,22 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3390,19 +3532,19 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3411,19 +3553,22 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,7 +3815,7 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -3676,7 +3833,7 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3688,22 +3845,25 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,25 +4118,28 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-35700</v>
       </c>
       <c r="I72" s="3">
         <v>-35700</v>
@@ -3975,7 +4148,7 @@
         <v>-35700</v>
       </c>
       <c r="K72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="L72" s="3">
         <v>-35600</v>
@@ -3987,7 +4160,7 @@
         <v>-35600</v>
       </c>
       <c r="O72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="P72" s="3">
         <v>-300</v>
@@ -3999,13 +4172,16 @@
         <v>-300</v>
       </c>
       <c r="S72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,7 +4369,7 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -4202,7 +4387,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4214,22 +4399,25 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4472,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E81" s="3">
         <v>-11700</v>
@@ -4360,11 +4554,11 @@
         <v>-11700</v>
       </c>
       <c r="G81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-46500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4381,11 +4575,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-35200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,8 +4659,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5401,8 +5649,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,19 +962,20 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,41 +1113,44 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1176,8 +1199,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,13 +1231,14 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>11600</v>
@@ -1223,11 +1250,11 @@
         <v>11600</v>
       </c>
       <c r="H17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I17" s="3">
         <v>46500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1244,11 +1271,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>35200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,11 +1312,11 @@
         <v>-11600</v>
       </c>
       <c r="H18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-46500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1303,11 +1333,11 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-35200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,16 +1563,19 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-11700</v>
       </c>
       <c r="F23" s="3">
         <v>-11700</v>
@@ -1541,11 +1584,11 @@
         <v>-11700</v>
       </c>
       <c r="H23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-46500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1562,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-35200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,16 +1749,19 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-11700</v>
       </c>
       <c r="F26" s="3">
         <v>-11700</v>
@@ -1718,11 +1770,11 @@
         <v>-11700</v>
       </c>
       <c r="H26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-46500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1739,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-35200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1759,16 +1811,19 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-11700</v>
       </c>
       <c r="F27" s="3">
         <v>-11700</v>
@@ -1777,11 +1832,11 @@
         <v>-11700</v>
       </c>
       <c r="H27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-46500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1798,11 +1853,11 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-35200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,16 +2183,19 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-11700</v>
       </c>
       <c r="F33" s="3">
         <v>-11700</v>
@@ -2131,11 +2204,11 @@
         <v>-11700</v>
       </c>
       <c r="H33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-46500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2152,11 +2225,11 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-35200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,16 +2307,19 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-11700</v>
       </c>
       <c r="F35" s="3">
         <v>-11700</v>
@@ -2249,11 +2328,11 @@
         <v>-11700</v>
       </c>
       <c r="H35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-46500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2270,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-35200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2441,8 +2528,8 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2450,8 +2537,8 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2572,13 +2665,16 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2749,13 +2851,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2913,8 +3024,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -2922,8 +3033,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>100</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3218,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3311,16 +3442,16 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3358,25 +3492,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3420,7 +3557,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3441,16 +3578,19 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3470,25 +3610,25 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3497,19 +3637,22 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3535,19 +3678,19 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3556,19 +3699,22 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3818,7 +3976,7 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3836,7 +3994,7 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3848,22 +4006,25 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4130,19 +4304,19 @@
         <v>-128800</v>
       </c>
       <c r="E72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-117200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-93900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-35700</v>
       </c>
       <c r="J72" s="3">
         <v>-35700</v>
@@ -4151,7 +4325,7 @@
         <v>-35700</v>
       </c>
       <c r="L72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="M72" s="3">
         <v>-35600</v>
@@ -4163,7 +4337,7 @@
         <v>-35600</v>
       </c>
       <c r="P72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="Q72" s="3">
         <v>-300</v>
@@ -4175,13 +4349,16 @@
         <v>-300</v>
       </c>
       <c r="T72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4372,7 +4558,7 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4390,7 +4576,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4402,22 +4588,25 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,80 +4664,86 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-11700</v>
       </c>
       <c r="F81" s="3">
         <v>-11700</v>
@@ -4557,11 +4752,11 @@
         <v>-11700</v>
       </c>
       <c r="H81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-46500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4578,11 +4773,11 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-35200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4662,8 +4861,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5652,8 +5901,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,11 +988,11 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,41 +1136,44 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1210,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1202,8 +1225,8 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>11600</v>
@@ -1253,11 +1280,11 @@
         <v>11600</v>
       </c>
       <c r="I17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J17" s="3">
         <v>46500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1274,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>35200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-11600</v>
@@ -1315,11 +1345,11 @@
         <v>-11600</v>
       </c>
       <c r="I18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-46500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1336,11 +1366,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,16 +1476,19 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-11700</v>
       </c>
       <c r="G23" s="3">
         <v>-11700</v>
@@ -1587,11 +1630,11 @@
         <v>-11700</v>
       </c>
       <c r="I23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-46500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1608,11 +1651,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-11700</v>
       </c>
       <c r="G26" s="3">
         <v>-11700</v>
@@ -1773,11 +1825,11 @@
         <v>-11700</v>
       </c>
       <c r="I26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-46500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1794,11 +1846,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-11700</v>
       </c>
       <c r="G27" s="3">
         <v>-11700</v>
@@ -1835,11 +1890,11 @@
         <v>-11700</v>
       </c>
       <c r="I27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-46500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1856,11 +1911,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-11700</v>
       </c>
       <c r="G33" s="3">
         <v>-11700</v>
@@ -2207,11 +2280,11 @@
         <v>-11700</v>
       </c>
       <c r="I33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-46500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2228,11 +2301,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-11700</v>
       </c>
       <c r="G35" s="3">
         <v>-11700</v>
@@ -2331,11 +2410,11 @@
         <v>-11700</v>
       </c>
       <c r="I35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-46500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2352,11 +2431,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2531,8 +2618,8 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
@@ -2540,8 +2627,8 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2668,13 +2761,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2854,13 +2956,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>100</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3347,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3445,16 +3576,16 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3465,13 +3596,16 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3495,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3527,13 +3661,16 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3560,7 +3697,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3581,21 +3718,24 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3613,25 +3753,25 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3640,24 +3780,27 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3681,19 +3824,19 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3702,19 +3845,22 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3979,7 +4137,7 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -3997,7 +4155,7 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4009,22 +4167,25 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,31 +4466,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="E72" s="3">
         <v>-128800</v>
       </c>
       <c r="F72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-117200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-105500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-93900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-35700</v>
       </c>
       <c r="K72" s="3">
         <v>-35700</v>
@@ -4328,7 +4502,7 @@
         <v>-35700</v>
       </c>
       <c r="M72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="N72" s="3">
         <v>-35600</v>
@@ -4340,7 +4514,7 @@
         <v>-35600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="R72" s="3">
         <v>-300</v>
@@ -4352,13 +4526,16 @@
         <v>-300</v>
       </c>
       <c r="U72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4561,7 +4747,7 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4579,7 +4765,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4591,22 +4777,25 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-11700</v>
       </c>
       <c r="G81" s="3">
         <v>-11700</v>
@@ -4755,11 +4950,11 @@
         <v>-11700</v>
       </c>
       <c r="I81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-46500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4776,11 +4971,11 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4864,8 +5063,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5904,8 +6153,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -5913,8 +6162,8 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,11 +1005,11 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,41 +1159,44 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1236,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>11600</v>
@@ -1283,11 +1310,11 @@
         <v>11600</v>
       </c>
       <c r="J17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K17" s="3">
         <v>46500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1304,11 +1331,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>35200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-11600</v>
@@ -1348,11 +1378,11 @@
         <v>-11600</v>
       </c>
       <c r="J18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1369,11 +1399,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-35200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,8 +1527,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-11700</v>
       </c>
       <c r="H23" s="3">
         <v>-11700</v>
@@ -1633,11 +1676,11 @@
         <v>-11700</v>
       </c>
       <c r="J23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-46500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1654,11 +1697,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-35200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-11700</v>
       </c>
       <c r="H26" s="3">
         <v>-11700</v>
@@ -1828,11 +1880,11 @@
         <v>-11700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1849,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-35200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1881,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-11700</v>
       </c>
       <c r="H27" s="3">
         <v>-11700</v>
@@ -1893,11 +1948,11 @@
         <v>-11700</v>
       </c>
       <c r="J27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-46500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1914,11 +1969,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-35200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2271,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-11700</v>
       </c>
       <c r="H33" s="3">
         <v>-11700</v>
@@ -2283,11 +2356,11 @@
         <v>-11700</v>
       </c>
       <c r="J33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-46500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2304,11 +2377,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-35200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-11700</v>
       </c>
       <c r="H35" s="3">
         <v>-11700</v>
@@ -2413,11 +2492,11 @@
         <v>-11700</v>
       </c>
       <c r="J35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-46500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2434,11 +2513,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-35200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2621,8 +2708,8 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2630,8 +2717,8 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2764,13 +2857,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2959,13 +3061,16 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>100</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3476,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3579,16 +3710,16 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3632,25 +3766,25 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3810,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3700,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3721,16 +3858,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,7 +3878,7 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3756,25 +3896,25 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3783,19 +3923,22 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3827,19 +3970,19 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3848,19 +3991,22 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4140,7 +4298,7 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -4158,7 +4316,7 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4170,22 +4328,25 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,25 +4652,25 @@
         <v>-128900</v>
       </c>
       <c r="E72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="F72" s="3">
         <v>-128800</v>
       </c>
       <c r="G72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-117200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-105500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-93900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-35700</v>
       </c>
       <c r="L72" s="3">
         <v>-35700</v>
@@ -4505,7 +4679,7 @@
         <v>-35700</v>
       </c>
       <c r="N72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="O72" s="3">
         <v>-35600</v>
@@ -4517,7 +4691,7 @@
         <v>-35600</v>
       </c>
       <c r="R72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="S72" s="3">
         <v>-300</v>
@@ -4529,13 +4703,16 @@
         <v>-300</v>
       </c>
       <c r="V72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4750,7 +4936,7 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4768,7 +4954,7 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4780,22 +4966,25 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4941,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-11700</v>
       </c>
       <c r="H81" s="3">
         <v>-11700</v>
@@ -4953,11 +5148,11 @@
         <v>-11700</v>
       </c>
       <c r="J81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-46500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4974,11 +5169,11 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-35200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6156,8 +6405,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,11 +1021,11 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,41 +1181,44 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1261,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1254,8 +1276,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1311,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>104300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1301,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>11600</v>
@@ -1313,11 +1339,11 @@
         <v>11600</v>
       </c>
       <c r="K17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L17" s="3">
         <v>46500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1334,11 +1360,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>35200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-11600</v>
@@ -1381,11 +1410,11 @@
         <v>-11600</v>
       </c>
       <c r="K18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-46500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1402,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-35200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1530,8 +1566,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1584,13 +1620,16 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1652,13 +1691,16 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1667,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-11700</v>
       </c>
       <c r="I23" s="3">
         <v>-11700</v>
@@ -1679,11 +1721,11 @@
         <v>-11700</v>
       </c>
       <c r="K23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-46500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1700,11 +1742,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-35200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1904,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1871,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-11700</v>
       </c>
       <c r="I26" s="3">
         <v>-11700</v>
@@ -1883,11 +1934,11 @@
         <v>-11700</v>
       </c>
       <c r="K26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-46500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1904,11 +1955,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-35200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1924,13 +1975,16 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1939,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-11700</v>
       </c>
       <c r="I27" s="3">
         <v>-11700</v>
@@ -1951,11 +2005,11 @@
         <v>-11700</v>
       </c>
       <c r="K27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-46500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1972,11 +2026,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-35200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,13 +2401,16 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2347,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-11700</v>
       </c>
       <c r="I33" s="3">
         <v>-11700</v>
@@ -2359,11 +2431,11 @@
         <v>-11700</v>
       </c>
       <c r="K33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-46500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2380,11 +2452,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-35200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2543,16 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2483,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-11700</v>
       </c>
       <c r="I35" s="3">
         <v>-11700</v>
@@ -2495,11 +2573,11 @@
         <v>-11700</v>
       </c>
       <c r="K35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-46500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2516,11 +2594,11 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-35200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2711,8 +2797,8 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
@@ -2720,8 +2806,8 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2860,13 +2952,16 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3064,13 +3165,16 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3255,8 +3365,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3264,8 +3374,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>100</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>100</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3605,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3794,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>100</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3713,16 +3843,16 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,7 +3878,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3769,25 +3902,25 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,7 +3949,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3840,7 +3976,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3861,16 +3997,19 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3881,7 +4020,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3899,25 +4038,25 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -3926,19 +4065,22 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +4091,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -3973,19 +4115,19 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3994,19 +4136,22 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>200</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4431,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -4301,7 +4458,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -4319,7 +4476,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4331,22 +4488,25 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,37 +4813,40 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="E72" s="3">
         <v>-128900</v>
       </c>
       <c r="F72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="G72" s="3">
         <v>-128800</v>
       </c>
       <c r="H72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-117200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-93900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-35700</v>
       </c>
       <c r="M72" s="3">
         <v>-35700</v>
@@ -4682,7 +4855,7 @@
         <v>-35700</v>
       </c>
       <c r="O72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="P72" s="3">
         <v>-35600</v>
@@ -4694,7 +4867,7 @@
         <v>-35600</v>
       </c>
       <c r="S72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="T72" s="3">
         <v>-300</v>
@@ -4706,13 +4879,16 @@
         <v>-300</v>
       </c>
       <c r="W72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,13 +5097,16 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -4939,7 +5124,7 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -4957,7 +5142,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4969,22 +5154,25 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5239,92 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5139,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-11700</v>
       </c>
       <c r="I81" s="3">
         <v>-11700</v>
@@ -5151,11 +5345,11 @@
         <v>-11700</v>
       </c>
       <c r="K81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-46500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5172,11 +5366,11 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-35200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5277,8 +5475,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6408,8 +6656,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,11 +1038,11 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,41 +1204,44 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1279,8 +1302,8 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,17 +1338,18 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>104300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>11600</v>
@@ -1342,11 +1369,11 @@
         <v>11600</v>
       </c>
       <c r="L17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M17" s="3">
         <v>46500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1363,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>35200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-104300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1401,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-11600</v>
@@ -1413,11 +1443,11 @@
         <v>-11600</v>
       </c>
       <c r="L18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-46500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1434,11 +1464,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-35200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-104300</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1569,8 +1606,8 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1623,17 +1660,20 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1712,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-11700</v>
       </c>
       <c r="J23" s="3">
         <v>-11700</v>
@@ -1724,11 +1767,11 @@
         <v>-11700</v>
       </c>
       <c r="L23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-46500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1745,11 +1788,11 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-35200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1925,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-11700</v>
       </c>
       <c r="J26" s="3">
         <v>-11700</v>
@@ -1937,11 +1989,11 @@
         <v>-11700</v>
       </c>
       <c r="L26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-46500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1958,11 +2010,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-35200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1978,8 +2030,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1996,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-11700</v>
       </c>
       <c r="J27" s="3">
         <v>-11700</v>
@@ -2008,11 +2063,11 @@
         <v>-11700</v>
       </c>
       <c r="L27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-46500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2029,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-35200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2413,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2422,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-11700</v>
       </c>
       <c r="J33" s="3">
         <v>-11700</v>
@@ -2434,11 +2507,11 @@
         <v>-11700</v>
       </c>
       <c r="L33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-46500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2455,11 +2528,11 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-35200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2564,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-11700</v>
       </c>
       <c r="J35" s="3">
         <v>-11700</v>
@@ -2576,11 +2655,11 @@
         <v>-11700</v>
       </c>
       <c r="L35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-46500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2597,11 +2676,11 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-35200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2800,8 +2887,8 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
@@ -2809,8 +2896,8 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2955,13 +3048,16 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3168,13 +3270,16 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3368,8 +3479,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3377,8 +3488,8 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>100</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>100</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3733,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +3925,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3846,16 +3977,16 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3881,7 +4015,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3905,25 +4039,25 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,7 +4089,7 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3979,7 +4116,7 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4000,16 +4137,19 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4023,7 +4163,7 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -4041,25 +4181,25 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4068,24 +4208,27 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4094,7 +4237,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4118,19 +4261,19 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4139,19 +4282,22 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>200</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,7 +4601,7 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -4461,7 +4619,7 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -4479,7 +4637,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4491,22 +4649,25 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,31 +4999,31 @@
         <v>-233300</v>
       </c>
       <c r="E72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="F72" s="3">
         <v>-128900</v>
       </c>
       <c r="G72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="H72" s="3">
         <v>-128800</v>
       </c>
       <c r="I72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-117200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-93900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-35700</v>
       </c>
       <c r="N72" s="3">
         <v>-35700</v>
@@ -4858,7 +5032,7 @@
         <v>-35700</v>
       </c>
       <c r="P72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="Q72" s="3">
         <v>-35600</v>
@@ -4870,7 +5044,7 @@
         <v>-35600</v>
       </c>
       <c r="T72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="U72" s="3">
         <v>-300</v>
@@ -4882,13 +5056,16 @@
         <v>-300</v>
       </c>
       <c r="X72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,7 +5295,7 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -5127,7 +5313,7 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -5145,7 +5331,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -5157,22 +5343,25 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-104400</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -5336,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-11700</v>
       </c>
       <c r="J81" s="3">
         <v>-11700</v>
@@ -5348,11 +5543,11 @@
         <v>-11700</v>
       </c>
       <c r="L81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-46500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -5369,11 +5564,11 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-35200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5469,8 +5668,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -5478,8 +5677,8 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6659,8 +6908,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -6668,8 +6917,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,11 +1055,11 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,41 +1227,44 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1313,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1305,8 +1328,8 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,11 +1375,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>104300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1360,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>11600</v>
@@ -1372,11 +1399,11 @@
         <v>11600</v>
       </c>
       <c r="M17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N17" s="3">
         <v>46500</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1393,11 +1420,11 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>35200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,11 +1452,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-104300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1434,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-11600</v>
@@ -1446,11 +1476,11 @@
         <v>-11600</v>
       </c>
       <c r="M18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-46500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1467,11 +1497,11 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-35200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,19 +1635,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-104300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,11 +1712,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1737,20 +1777,23 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-104400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1758,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-11700</v>
       </c>
       <c r="K23" s="3">
         <v>-11700</v>
@@ -1770,11 +1813,11 @@
         <v>-11700</v>
       </c>
       <c r="M23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-46500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1791,11 +1834,11 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-35200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,20 +2008,23 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-104400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1980,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-11700</v>
       </c>
       <c r="K26" s="3">
         <v>-11700</v>
@@ -1992,11 +2044,11 @@
         <v>-11700</v>
       </c>
       <c r="M26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-46500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -2013,11 +2065,11 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-35200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2033,20 +2085,23 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-104400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -2054,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-11700</v>
       </c>
       <c r="K27" s="3">
         <v>-11700</v>
@@ -2066,11 +2121,11 @@
         <v>-11700</v>
       </c>
       <c r="M27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-46500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2087,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-35200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,20 +2547,23 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-104400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2498,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-11700</v>
       </c>
       <c r="K33" s="3">
         <v>-11700</v>
@@ -2510,11 +2583,11 @@
         <v>-11700</v>
       </c>
       <c r="M33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-46500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2531,11 +2604,11 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-35200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,20 +2701,23 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-104400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2646,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-11700</v>
       </c>
       <c r="K35" s="3">
         <v>-11700</v>
@@ -2658,11 +2737,11 @@
         <v>-11700</v>
       </c>
       <c r="M35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-46500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2679,11 +2758,11 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-35200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2890,8 +2977,8 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
@@ -2899,8 +2986,8 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3051,13 +3144,16 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3273,13 +3375,16 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3482,8 +3593,8 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3491,8 +3602,8 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>100</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3862,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3980,16 +4111,16 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4018,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4042,25 +4176,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4229,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -4119,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4140,16 +4277,19 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4166,7 +4306,7 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4184,25 +4324,25 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4211,24 +4351,27 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4240,7 +4383,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -4264,19 +4407,19 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4285,19 +4428,22 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4604,7 +4762,7 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4622,7 +4780,7 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -4640,7 +4798,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4652,22 +4810,25 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,43 +5161,46 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-233300</v>
+        <v>-233400</v>
       </c>
       <c r="E72" s="3">
         <v>-233300</v>
       </c>
       <c r="F72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="G72" s="3">
         <v>-128900</v>
       </c>
       <c r="H72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="I72" s="3">
         <v>-128800</v>
       </c>
       <c r="J72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-117200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-93900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-35700</v>
       </c>
       <c r="O72" s="3">
         <v>-35700</v>
@@ -5035,7 +5209,7 @@
         <v>-35700</v>
       </c>
       <c r="Q72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="R72" s="3">
         <v>-35600</v>
@@ -5047,7 +5221,7 @@
         <v>-35600</v>
       </c>
       <c r="U72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="V72" s="3">
         <v>-300</v>
@@ -5059,13 +5233,16 @@
         <v>-300</v>
       </c>
       <c r="Y72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Z72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5298,7 +5484,7 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -5316,7 +5502,7 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -5334,7 +5520,7 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -5346,22 +5532,25 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,99 +5623,105 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-104400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -5534,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-11700</v>
       </c>
       <c r="K81" s="3">
         <v>-11700</v>
@@ -5546,11 +5741,11 @@
         <v>-11700</v>
       </c>
       <c r="M81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-46500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -5567,11 +5762,11 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-35200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5671,8 +5870,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5680,8 +5879,8 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6911,8 +7160,8 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
@@ -6920,8 +7169,8 @@
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,11 +1072,11 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,41 +1250,44 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1339,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1354,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,11 +1405,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>104300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>11600</v>
@@ -1402,11 +1429,11 @@
         <v>11600</v>
       </c>
       <c r="N17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="O17" s="3">
         <v>46500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1423,11 +1450,11 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>35200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,11 +1485,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-104300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1467,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-11600</v>
@@ -1479,11 +1509,11 @@
         <v>-11600</v>
       </c>
       <c r="N18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-46500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1500,11 +1530,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-35200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-104300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,11 +1755,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,11 +1835,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-104400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1804,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-11700</v>
       </c>
       <c r="L23" s="3">
         <v>-11700</v>
@@ -1816,11 +1859,11 @@
         <v>-11700</v>
       </c>
       <c r="N23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-46500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1837,11 +1880,11 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-35200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-104400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -2035,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-11700</v>
       </c>
       <c r="L26" s="3">
         <v>-11700</v>
@@ -2047,11 +2099,11 @@
         <v>-11700</v>
       </c>
       <c r="N26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-46500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -2068,11 +2120,11 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-35200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-104400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -2112,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-11700</v>
       </c>
       <c r="L27" s="3">
         <v>-11700</v>
@@ -2124,11 +2179,11 @@
         <v>-11700</v>
       </c>
       <c r="N27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-46500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -2145,11 +2200,11 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-35200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,11 +2635,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-104400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2574,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-11700</v>
       </c>
       <c r="L33" s="3">
         <v>-11700</v>
@@ -2586,11 +2659,11 @@
         <v>-11700</v>
       </c>
       <c r="N33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-46500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2607,11 +2680,11 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-35200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,11 +2795,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-104400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2728,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-11700</v>
       </c>
       <c r="L35" s="3">
         <v>-11700</v>
@@ -2740,11 +2819,11 @@
         <v>-11700</v>
       </c>
       <c r="N35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-46500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2761,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-35200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2980,8 +3067,8 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
@@ -2989,8 +3076,8 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3147,13 +3240,16 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3378,13 +3480,16 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y49" s="3">
-        <v>100</v>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>100</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3991,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4114,16 +4245,16 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4155,10 +4289,10 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4179,25 +4313,25 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,10 +4363,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -4259,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4280,21 +4417,24 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -4309,7 +4449,7 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -4327,25 +4467,25 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4354,19 +4494,22 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4386,7 +4529,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4410,19 +4553,19 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4431,19 +4574,22 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>200</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4765,7 +4923,7 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4783,7 +4941,7 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -4801,7 +4959,7 @@
         <v>300</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4813,22 +4971,25 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
         <v>100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,37 +5347,37 @@
         <v>-233400</v>
       </c>
       <c r="E72" s="3">
-        <v>-233300</v>
+        <v>-233400</v>
       </c>
       <c r="F72" s="3">
         <v>-233300</v>
       </c>
       <c r="G72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="H72" s="3">
         <v>-128900</v>
       </c>
       <c r="I72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="J72" s="3">
         <v>-128800</v>
       </c>
       <c r="K72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-117200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-93900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-35700</v>
       </c>
       <c r="P72" s="3">
         <v>-35700</v>
@@ -5212,7 +5386,7 @@
         <v>-35700</v>
       </c>
       <c r="R72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="S72" s="3">
         <v>-35600</v>
@@ -5224,7 +5398,7 @@
         <v>-35600</v>
       </c>
       <c r="V72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="W72" s="3">
         <v>-300</v>
@@ -5236,13 +5410,16 @@
         <v>-300</v>
       </c>
       <c r="Z72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5487,7 +5673,7 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -5505,7 +5691,7 @@
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -5523,7 +5709,7 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
@@ -5535,22 +5721,25 @@
         <v>-200</v>
       </c>
       <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,11 +5915,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-104400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -5732,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-11700</v>
       </c>
       <c r="L81" s="3">
         <v>-11700</v>
@@ -5744,11 +5939,11 @@
         <v>-11700</v>
       </c>
       <c r="N81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-46500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -5765,11 +5960,11 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-35200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5882,8 +6081,8 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7163,8 +7412,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
@@ -7172,8 +7421,8 @@
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,16 +1071,18 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1102,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,41 +1292,47 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,11 +1387,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1357,17 +1402,23 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>104300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>11600</v>
@@ -1432,14 +1485,14 @@
         <v>11600</v>
       </c>
       <c r="O17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>46500</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1453,14 +1506,14 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>35200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1526,14 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1488,22 +1547,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-104300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-11600</v>
@@ -1512,14 +1571,14 @@
         <v>-11600</v>
       </c>
       <c r="O18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-46500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1533,14 +1592,14 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-35200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1678,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-104300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,14 +1837,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1838,38 +1923,38 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-104400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-11700</v>
       </c>
       <c r="N23" s="3">
         <v>-11700</v>
       </c>
       <c r="O23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-46500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1883,14 +1968,14 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-35200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2078,38 +2181,38 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-104400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-11700</v>
       </c>
       <c r="N26" s="3">
         <v>-11700</v>
       </c>
       <c r="O26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-46500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -2123,14 +2226,14 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-35200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2143,8 +2246,14 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2158,38 +2267,38 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-104400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-11700</v>
       </c>
       <c r="N27" s="3">
         <v>-11700</v>
       </c>
       <c r="O27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-46500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -2203,14 +2312,14 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-35200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2638,38 +2783,38 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-104400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-11700</v>
       </c>
       <c r="N33" s="3">
         <v>-11700</v>
       </c>
       <c r="O33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-46500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2683,14 +2828,14 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-35200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2798,38 +2955,38 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-104400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-11700</v>
       </c>
       <c r="N35" s="3">
         <v>-11700</v>
       </c>
       <c r="O35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-46500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2843,14 +3000,14 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-35200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3070,26 +3243,32 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3243,13 +3428,19 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3483,13 +3686,19 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3710,26 +3931,32 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z49" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>100</v>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4120,16 +4371,22 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4248,19 +4509,19 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
@@ -4268,16 +4529,22 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -4292,14 +4559,14 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4316,28 +4583,28 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4363,10 +4636,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -4399,10 +4672,10 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4420,16 +4693,22 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,10 +4716,10 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4452,10 +4731,10 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4470,13 +4749,13 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4485,31 +4764,37 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
       </c>
       <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4532,10 +4817,10 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4556,40 +4841,46 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
       <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>200</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,16 +5217,22 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -4926,10 +5241,10 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -4944,10 +5259,10 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4962,10 +5277,10 @@
         <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4974,22 +5289,28 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
       <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5350,49 +5697,49 @@
         <v>-233400</v>
       </c>
       <c r="F72" s="3">
+        <v>-233400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-233400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-233300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-233300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-128900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-128900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-128800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-128800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-117200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-105500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-93900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-35700</v>
       </c>
       <c r="R72" s="3">
         <v>-35700</v>
       </c>
       <c r="S72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="T72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="U72" s="3">
         <v>-35600</v>
@@ -5401,10 +5748,10 @@
         <v>-35600</v>
       </c>
       <c r="W72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="X72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="Y72" s="3">
         <v>-300</v>
@@ -5413,13 +5760,19 @@
         <v>-300</v>
       </c>
       <c r="AA72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,16 +6023,22 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -5676,10 +6047,10 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
@@ -5694,10 +6065,10 @@
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5712,10 +6083,10 @@
         <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -5724,22 +6095,28 @@
         <v>-200</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5918,38 +6307,38 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-104400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-11700</v>
       </c>
       <c r="N81" s="3">
         <v>-11700</v>
       </c>
       <c r="O81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-46500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -5963,14 +6352,14 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-35200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,26 +6472,32 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,26 +7912,32 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,19 +1086,20 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1108,11 +1122,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1298,41 +1318,44 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1416,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
@@ -1408,8 +1431,8 @@
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1467,11 +1494,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>104300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1479,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>11600</v>
@@ -1491,11 +1518,11 @@
         <v>11600</v>
       </c>
       <c r="Q17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R17" s="3">
         <v>46500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1512,11 +1539,11 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>35200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,11 +1583,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-104300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1565,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-11600</v>
@@ -1577,11 +1607,11 @@
         <v>-11600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-46500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1598,11 +1628,11 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1757,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-104300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,11 +1883,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1929,11 +1972,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-104400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1941,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-11700</v>
       </c>
       <c r="O23" s="3">
         <v>-11700</v>
@@ -1953,11 +1996,11 @@
         <v>-11700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R23" s="3">
         <v>-46500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1974,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2187,11 +2239,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-104400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -2199,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-11700</v>
       </c>
       <c r="O26" s="3">
         <v>-11700</v>
@@ -2211,11 +2263,11 @@
         <v>-11700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R26" s="3">
         <v>-46500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -2232,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2252,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2273,11 +2328,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-104400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2285,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-11700</v>
       </c>
       <c r="O27" s="3">
         <v>-11700</v>
@@ -2297,11 +2352,11 @@
         <v>-11700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R27" s="3">
         <v>-46500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -2318,11 +2373,11 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2789,11 +2862,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-104400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2801,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-11700</v>
       </c>
       <c r="O33" s="3">
         <v>-11700</v>
@@ -2813,11 +2886,11 @@
         <v>-11700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R33" s="3">
         <v>-46500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2834,11 +2907,11 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2961,11 +3040,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-104400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2973,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-11700</v>
       </c>
       <c r="O35" s="3">
         <v>-11700</v>
@@ -2985,11 +3064,11 @@
         <v>-11700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R35" s="3">
         <v>-46500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -3006,11 +3085,11 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3249,8 +3336,8 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
@@ -3258,8 +3345,8 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3434,13 +3527,16 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
         <v>100</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3692,13 +3794,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3937,8 +4048,8 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>0</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
@@ -3946,8 +4057,8 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB49" s="3">
-        <v>100</v>
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC49" s="3">
         <v>100</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4377,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4515,16 +4646,16 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,7 +4681,7 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4565,11 +4699,11 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4589,25 +4723,25 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4642,7 +4779,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -4678,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4699,16 +4836,19 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4722,7 +4862,7 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -4737,7 +4877,7 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -4755,25 +4895,25 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4782,19 +4922,22 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
         <v>100</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>200</v>
       </c>
       <c r="AD60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4823,7 +4966,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -4847,19 +4990,19 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -4868,19 +5011,22 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>200</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5235,7 +5393,7 @@
         <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -5247,7 +5405,7 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -5265,7 +5423,7 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -5283,7 +5441,7 @@
         <v>300</v>
       </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -5295,22 +5453,25 @@
         <v>200</v>
       </c>
       <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>200</v>
       </c>
       <c r="AD66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5703,37 +5877,37 @@
         <v>-233400</v>
       </c>
       <c r="H72" s="3">
-        <v>-233300</v>
+        <v>-233400</v>
       </c>
       <c r="I72" s="3">
         <v>-233300</v>
       </c>
       <c r="J72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="K72" s="3">
         <v>-128900</v>
       </c>
       <c r="L72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="M72" s="3">
         <v>-128800</v>
       </c>
       <c r="N72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-117200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-93900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-35700</v>
       </c>
       <c r="S72" s="3">
         <v>-35700</v>
@@ -5742,7 +5916,7 @@
         <v>-35700</v>
       </c>
       <c r="U72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="V72" s="3">
         <v>-35600</v>
@@ -5754,7 +5928,7 @@
         <v>-35600</v>
       </c>
       <c r="Y72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="Z72" s="3">
         <v>-300</v>
@@ -5766,13 +5940,16 @@
         <v>-300</v>
       </c>
       <c r="AC72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AD72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6041,7 +6227,7 @@
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -6053,7 +6239,7 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
@@ -6071,7 +6257,7 @@
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -6089,7 +6275,7 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
@@ -6101,22 +6287,25 @@
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6313,11 +6508,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-104400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -6325,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-11700</v>
       </c>
       <c r="O81" s="3">
         <v>-11700</v>
@@ -6337,11 +6532,11 @@
         <v>-11700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R81" s="3">
         <v>-46500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -6358,11 +6553,11 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6478,8 +6677,8 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
@@ -6487,8 +6686,8 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7918,8 +8167,8 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
+      <c r="Y101" s="3">
+        <v>0</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>4</v>
@@ -7927,8 +8176,8 @@
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>CLOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1098,11 +1112,11 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1125,11 +1139,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,41 +1341,44 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,8 +1442,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
@@ -1434,8 +1457,8 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1497,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1509,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>11600</v>
@@ -1521,11 +1548,11 @@
         <v>11600</v>
       </c>
       <c r="R17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S17" s="3">
         <v>46500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1542,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>35200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1586,11 +1616,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-104300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1598,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-11600</v>
@@ -1610,11 +1640,11 @@
         <v>-11600</v>
       </c>
       <c r="R18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-46500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1631,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1797,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-104300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1886,11 +1926,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1975,11 +2018,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-104400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1987,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-11700</v>
       </c>
       <c r="P23" s="3">
         <v>-11700</v>
@@ -1999,11 +2042,11 @@
         <v>-11700</v>
       </c>
       <c r="R23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-46500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -2020,11 +2063,11 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2242,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-104400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -2254,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-11700</v>
       </c>
       <c r="P26" s="3">
         <v>-11700</v>
@@ -2266,11 +2318,11 @@
         <v>-11700</v>
       </c>
       <c r="R26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-46500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -2287,11 +2339,11 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2307,8 +2359,11 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2331,11 +2386,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-104400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -2343,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-11700</v>
       </c>
       <c r="P27" s="3">
         <v>-11700</v>
@@ -2355,11 +2410,11 @@
         <v>-11700</v>
       </c>
       <c r="R27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-46500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -2376,11 +2431,11 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2865,11 +2938,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-104400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2877,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-11700</v>
       </c>
       <c r="P33" s="3">
         <v>-11700</v>
@@ -2889,11 +2962,11 @@
         <v>-11700</v>
       </c>
       <c r="R33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-46500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2910,11 +2983,11 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3043,11 +3122,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-104400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -3055,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-11700</v>
       </c>
       <c r="P35" s="3">
         <v>-11700</v>
@@ -3067,11 +3146,11 @@
         <v>-11700</v>
       </c>
       <c r="R35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-46500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -3088,11 +3167,11 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3339,8 +3426,8 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
@@ -3348,8 +3435,8 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3530,13 +3623,16 @@
         <v>0</v>
       </c>
       <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
         <v>100</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3797,13 +3899,16 @@
         <v>0</v>
       </c>
       <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4051,8 +4162,8 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>4</v>
@@ -4060,8 +4171,8 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC49" s="3">
-        <v>100</v>
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD49" s="3">
         <v>100</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4506,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="3">
         <v>100</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,16 +4780,16 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4684,7 +4818,7 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -4702,11 +4836,11 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4726,25 +4860,25 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
+      <c r="AA58" s="3">
+        <v>0</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4782,7 +4919,7 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -4818,7 +4955,7 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4839,21 +4976,24 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -4865,7 +5005,7 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -4880,7 +5020,7 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -4898,25 +5038,25 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
@@ -4925,19 +5065,22 @@
         <v>100</v>
       </c>
       <c r="AB60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
         <v>100</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>200</v>
       </c>
       <c r="AE60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4969,7 +5112,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -4993,19 +5136,19 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
@@ -5014,19 +5157,22 @@
         <v>100</v>
       </c>
       <c r="AB61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC61" s="3">
         <v>200</v>
       </c>
       <c r="AD61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5396,7 +5554,7 @@
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -5408,7 +5566,7 @@
         <v>500</v>
       </c>
       <c r="K66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -5426,7 +5584,7 @@
         <v>400</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -5444,7 +5602,7 @@
         <v>300</v>
       </c>
       <c r="W66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -5456,22 +5614,25 @@
         <v>200</v>
       </c>
       <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>300</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>200</v>
       </c>
       <c r="AE66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,13 +6030,16 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-233400</v>
+        <v>-233500</v>
       </c>
       <c r="E72" s="3">
         <v>-233400</v>
@@ -5880,37 +6054,37 @@
         <v>-233400</v>
       </c>
       <c r="I72" s="3">
-        <v>-233300</v>
+        <v>-233400</v>
       </c>
       <c r="J72" s="3">
         <v>-233300</v>
       </c>
       <c r="K72" s="3">
-        <v>-128900</v>
+        <v>-233300</v>
       </c>
       <c r="L72" s="3">
         <v>-128900</v>
       </c>
       <c r="M72" s="3">
-        <v>-128800</v>
+        <v>-128900</v>
       </c>
       <c r="N72" s="3">
         <v>-128800</v>
       </c>
       <c r="O72" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-117200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-93900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-82200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-35700</v>
       </c>
       <c r="T72" s="3">
         <v>-35700</v>
@@ -5919,7 +6093,7 @@
         <v>-35700</v>
       </c>
       <c r="V72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="W72" s="3">
         <v>-35600</v>
@@ -5931,7 +6105,7 @@
         <v>-35600</v>
       </c>
       <c r="Z72" s="3">
-        <v>-300</v>
+        <v>-35600</v>
       </c>
       <c r="AA72" s="3">
         <v>-300</v>
@@ -5943,13 +6117,16 @@
         <v>-300</v>
       </c>
       <c r="AD72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AE72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6230,7 +6416,7 @@
         <v>-600</v>
       </c>
       <c r="G76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
@@ -6242,7 +6428,7 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
@@ -6260,7 +6446,7 @@
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -6278,7 +6464,7 @@
         <v>-300</v>
       </c>
       <c r="W76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
@@ -6290,22 +6476,25 @@
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-200</v>
       </c>
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
       <c r="AD76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AE76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6511,11 +6706,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-104400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -6523,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-11700</v>
       </c>
       <c r="P81" s="3">
         <v>-11700</v>
@@ -6535,11 +6730,11 @@
         <v>-11700</v>
       </c>
       <c r="R81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-46500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -6556,11 +6751,11 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6680,8 +6879,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
@@ -6689,8 +6888,8 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8170,8 +8419,8 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
@@ -8179,8 +8428,8 @@
       <c r="AB101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
